--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2477443.858508046</v>
+        <v>2604128.139909587</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13228832.04867467</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1852030.743161948</v>
+        <v>612367.946211476</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5542119.260228118</v>
+        <v>5870805.877005241</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>93.32022642872758</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>168.3268066668723</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0.4036204323794061</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -829,7 +831,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -868,7 +870,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.6852570556692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>68.55481538240082</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -908,7 +910,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>378.459028512113</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1054,13 +1056,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>18.17243837632802</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1069,7 +1071,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1102,7 +1104,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>130.3191357131377</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
@@ -1145,13 +1147,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>90.40013928040797</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>252.311284131905</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1291,22 +1293,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>27.6364375672788</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1357,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5523329354855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1376,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T11" t="n">
-        <v>174.3907297104531</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095521</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1528,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>103.8121020651559</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>55.0522163812357</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1594,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H14" t="n">
-        <v>61.67762560722871</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396377</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1768,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>101.9929615813391</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>85.97308812299428</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1831,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1850,19 +1852,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396345</v>
+        <v>34.54790254396377</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>93.80489242363926</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2059,7 +2061,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2087,19 +2089,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2242,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>98.15366458399269</v>
+        <v>164.4369732840325</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2485,16 +2487,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>70.60537108849599</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>113.3912344087409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>127.4334507336763</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.7163958965524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2968,7 +2970,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.96456344791494</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>223.2003349611176</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3196,16 +3198,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>154.8833258811978</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>189.5733066869304</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868335</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>103.8121020651556</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>85.44842650575903</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3676,7 +3678,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>53.25551766955362</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>260.4446813871667</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>351.4535088562695</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3755,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3803,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3898,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>98.26334559068083</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>146.3034971231957</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3992,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>149.9138062701105</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>101.5073434672568</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4198,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>133.7976324636082</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>655.2449790390979</v>
+        <v>1740.295266126907</v>
       </c>
       <c r="C2" t="n">
-        <v>228.344249052398</v>
+        <v>1717.434940180611</v>
       </c>
       <c r="D2" t="n">
-        <v>209.0920322778023</v>
+        <v>1294.142319365611</v>
       </c>
       <c r="E2" t="n">
-        <v>187.1554964660639</v>
+        <v>868.1653795134687</v>
       </c>
       <c r="F2" t="n">
-        <v>166.0717186958682</v>
+        <v>443.0411977028688</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>880.2445183516413</v>
       </c>
       <c r="L2" t="n">
-        <v>36.91199246082674</v>
+        <v>1338.611505491541</v>
       </c>
       <c r="M2" t="n">
-        <v>36.91199246082674</v>
+        <v>1338.611505491541</v>
       </c>
       <c r="N2" t="n">
-        <v>493.6978991635576</v>
+        <v>1338.611505491541</v>
       </c>
       <c r="O2" t="n">
-        <v>815.1719019525203</v>
+        <v>1338.611505491541</v>
       </c>
       <c r="P2" t="n">
-        <v>1271.957808655251</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1765.079687174587</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1765.079687174587</v>
       </c>
       <c r="V2" t="n">
-        <v>1488.110208167586</v>
+        <v>1765.079687174587</v>
       </c>
       <c r="W2" t="n">
-        <v>1488.110208167586</v>
+        <v>1765.079687174587</v>
       </c>
       <c r="X2" t="n">
-        <v>1076.390209335334</v>
+        <v>1757.400092382738</v>
       </c>
       <c r="Y2" t="n">
-        <v>671.0529392902239</v>
+        <v>1756.103226378033</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000786</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="K3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="L3" t="n">
-        <v>36.9119924608267</v>
+        <v>517.6410595347458</v>
       </c>
       <c r="M3" t="n">
-        <v>36.91199246082674</v>
+        <v>889.5119173879705</v>
       </c>
       <c r="N3" t="n">
-        <v>475.2419029331441</v>
+        <v>889.5119173879705</v>
       </c>
       <c r="O3" t="n">
-        <v>932.027809635875</v>
+        <v>1368.450841630399</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.813716338606</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>953.8361452792958</v>
+        <v>950.3183921019141</v>
       </c>
       <c r="C4" t="n">
-        <v>781.8635821582118</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="D4" t="n">
-        <v>618.5468092849825</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>452.338603437836</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>280.4768292123964</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>96.19346351647546</v>
       </c>
       <c r="K4" t="n">
-        <v>94.40332068498475</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>303.8948463526241</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>695.080641322875</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1517.507422453209</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1808.10663437511</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303045</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1717.93310382218</v>
       </c>
       <c r="T4" t="n">
-        <v>1628.425962247645</v>
+        <v>1474.59375604808</v>
       </c>
       <c r="U4" t="n">
-        <v>1628.425962247645</v>
+        <v>1474.59375604808</v>
       </c>
       <c r="V4" t="n">
-        <v>1346.714494855674</v>
+        <v>1192.882288656109</v>
       </c>
       <c r="W4" t="n">
-        <v>1346.714494855674</v>
+        <v>1192.882288656109</v>
       </c>
       <c r="X4" t="n">
-        <v>1346.714494855674</v>
+        <v>950.3183921019141</v>
       </c>
       <c r="Y4" t="n">
-        <v>1144.002113991362</v>
+        <v>950.3183921019141</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>908.3670997859888</v>
+        <v>988.0056192934842</v>
       </c>
       <c r="C5" t="n">
-        <v>885.506773839693</v>
+        <v>561.1048893067843</v>
       </c>
       <c r="D5" t="n">
-        <v>866.2545570650973</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>440.2776172129549</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>419.1938394427592</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>493.6978991635576</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>493.6978991635576</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M5" t="n">
-        <v>493.6978991635576</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="N5" t="n">
-        <v>950.4838058662885</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O5" t="n">
-        <v>1407.269712569019</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1329.512330082224</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y5" t="n">
-        <v>924.1750600371148</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>36.91199246082674</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>393.2225928484407</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L6" t="n">
-        <v>393.2225928484407</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M6" t="n">
-        <v>850.0084995511716</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N6" t="n">
-        <v>1306.794406253902</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1306.794406253902</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253902</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956633</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>803.1597773506776</v>
+        <v>654.358100361263</v>
       </c>
       <c r="C7" t="n">
-        <v>803.1597773506776</v>
+        <v>482.385537240179</v>
       </c>
       <c r="D7" t="n">
-        <v>784.8037789907503</v>
+        <v>482.385537240179</v>
       </c>
       <c r="E7" t="n">
-        <v>618.5955731436038</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F7" t="n">
-        <v>446.7337989181643</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>320.9309218908219</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>712.1167168610727</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1089.608227737109</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1798.56100972851</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1555.22166195441</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1275.037213454714</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>993.3257460627433</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W7" t="n">
-        <v>993.3257460627433</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="X7" t="n">
-        <v>993.3257460627433</v>
+        <v>1070.866837383587</v>
       </c>
       <c r="Y7" t="n">
-        <v>993.3257460627433</v>
+        <v>844.5240690733287</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>568.8670150191533</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C8" t="n">
-        <v>546.0066890728575</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D8" t="n">
-        <v>526.7544722982618</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>504.8179364865234</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>483.7341587163277</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N8" t="n">
-        <v>1006.023847611597</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4832,22 +4834,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1641.263477976562</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V8" t="n">
-        <v>1641.263477976562</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="W8" t="n">
-        <v>1244.872128276909</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="X8" t="n">
-        <v>990.012245315389</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y8" t="n">
-        <v>584.6749752702793</v>
+        <v>953.8185080541546</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4883,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>201.1892506764427</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>751.8547856608809</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L9" t="n">
-        <v>751.8547856608809</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M9" t="n">
-        <v>1302.520320645319</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N9" t="n">
-        <v>1853.185855629757</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.5237630147394</v>
+        <v>964.3625747002551</v>
       </c>
       <c r="C10" t="n">
-        <v>310.5237630147394</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D10" t="n">
-        <v>310.5237630147394</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>310.5237630147394</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1953.656311185974</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1671.944843794003</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1397.092439966515</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1154.528543412321</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.6897317268051</v>
+        <v>1154.528543412321</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2508.597492233547</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2081.696762246847</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1658.404141431847</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.427201579705</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>807.3030197691047</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G11" t="n">
-        <v>402.9639573585533</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H11" t="n">
-        <v>105.0955788325881</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I11" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>432.8021663929549</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>1148.310474368454</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L11" t="n">
-        <v>1148.310474368454</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M11" t="n">
-        <v>1148.310474368454</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N11" t="n">
-        <v>1500.425969990044</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O11" t="n">
-        <v>2345.570620140857</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P11" t="n">
-        <v>3053.849899298784</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3509.935378802968</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3509.935378802968</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3509.935378802968</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3333.783126570187</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3333.783126570187</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3333.783126570187</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3333.783126570187</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>3333.783126570187</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2928.445856525077</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>637.3221986075146</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>519.8162951250193</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>415.9763366403044</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>311.2744029132416</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>341.8961968556504</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K12" t="n">
-        <v>341.8961968556504</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L12" t="n">
-        <v>341.8961968556504</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M12" t="n">
-        <v>1162.688621118071</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N12" t="n">
-        <v>1162.688621118071</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="O12" t="n">
-        <v>1162.688621118071</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P12" t="n">
-        <v>1878.886338156569</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q12" t="n">
-        <v>1878.886338156569</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1470.913958935138</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>905.9420966742849</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>766.2492080275773</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>341.3163864385503</v>
+        <v>1077.775362431822</v>
       </c>
       <c r="C13" t="n">
-        <v>236.4556772818272</v>
+        <v>905.8027993107378</v>
       </c>
       <c r="D13" t="n">
-        <v>236.4556772818272</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E13" t="n">
-        <v>236.4556772818272</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F13" t="n">
-        <v>236.4556772818272</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G13" t="n">
-        <v>70.19870757605935</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>70.19870757605935</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>127.6900358002174</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>354.2176370060546</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>708.9069583004754</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1100.092753270726</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1477.584264146762</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1833.012392826525</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2123.611604748426</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2250.611734989188</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2080.476687508323</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>1837.137339734223</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U13" t="n">
-        <v>1556.952891234527</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V13" t="n">
-        <v>1275.241423842556</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="W13" t="n">
-        <v>1000.389020015069</v>
+        <v>1510.505227698082</v>
       </c>
       <c r="X13" t="n">
-        <v>757.8251234608739</v>
+        <v>1267.941331143888</v>
       </c>
       <c r="Y13" t="n">
-        <v>531.4823551506159</v>
+        <v>1267.941331143888</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2273.029745634075</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1846.129015647375</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1422.836394832375</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>996.859454980233</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>571.7352731696332</v>
+        <v>839.4070255988743</v>
       </c>
       <c r="G14" t="n">
-        <v>167.3962107590818</v>
+        <v>435.0679631883228</v>
       </c>
       <c r="H14" t="n">
-        <v>105.0955788325881</v>
+        <v>137.1995846623576</v>
       </c>
       <c r="I14" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>70.19870757605935</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L14" t="n">
-        <v>938.9077138297937</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M14" t="n">
-        <v>1807.616720083528</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N14" t="n">
-        <v>2664.790728652155</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O14" t="n">
-        <v>3509.935378802968</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P14" t="n">
-        <v>3509.935378802968</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q14" t="n">
-        <v>3509.935378802968</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3509.935378802968</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3509.935378802968</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3509.935378802968</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3509.935378802968</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3509.935378802968</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3509.935378802968</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3098.215379970715</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2692.878109925605</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>637.3221986075146</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>519.8162951250193</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>415.9763366403044</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>311.2744029132416</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>341.8961968556504</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>341.8961968556504</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>341.8961968556504</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M15" t="n">
-        <v>341.8961968556504</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N15" t="n">
-        <v>928.1580218181315</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O15" t="n">
-        <v>1796.867028071866</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P15" t="n">
-        <v>1796.867028071866</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
-        <v>1796.867028071866</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1470.913958935138</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>905.9420966742849</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>766.2492080275773</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>511.4514339194154</v>
+        <v>796.0638950398452</v>
       </c>
       <c r="C16" t="n">
-        <v>339.4788707983314</v>
+        <v>624.0913319187612</v>
       </c>
       <c r="D16" t="n">
-        <v>236.4556772818272</v>
+        <v>460.7745590455319</v>
       </c>
       <c r="E16" t="n">
-        <v>236.4556772818272</v>
+        <v>460.7745590455319</v>
       </c>
       <c r="F16" t="n">
-        <v>236.4556772818272</v>
+        <v>288.9127848200923</v>
       </c>
       <c r="G16" t="n">
-        <v>70.19870757605935</v>
+        <v>288.9127848200923</v>
       </c>
       <c r="H16" t="n">
-        <v>70.19870757605935</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>127.6900358002174</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>354.2176370060546</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>708.9069583004754</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1100.092753270726</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1477.584264146762</v>
+        <v>1509.688269976526</v>
       </c>
       <c r="O16" t="n">
-        <v>1833.012392826525</v>
+        <v>1865.116398656289</v>
       </c>
       <c r="P16" t="n">
-        <v>2123.611604748426</v>
+        <v>2155.71561057819</v>
       </c>
       <c r="Q16" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818951</v>
       </c>
       <c r="R16" t="n">
-        <v>2250.611734989188</v>
+        <v>2235.677127506125</v>
       </c>
       <c r="S16" t="n">
-        <v>2250.611734989188</v>
+        <v>2065.54208002526</v>
       </c>
       <c r="T16" t="n">
-        <v>2007.272387215088</v>
+        <v>2065.54208002526</v>
       </c>
       <c r="U16" t="n">
-        <v>1727.087938715392</v>
+        <v>1785.357631525564</v>
       </c>
       <c r="V16" t="n">
-        <v>1445.376471323421</v>
+        <v>1503.646164133593</v>
       </c>
       <c r="W16" t="n">
-        <v>1170.524067495934</v>
+        <v>1228.793760306106</v>
       </c>
       <c r="X16" t="n">
-        <v>927.960170941739</v>
+        <v>986.2298637519108</v>
       </c>
       <c r="Y16" t="n">
-        <v>701.617402631481</v>
+        <v>986.2298637519108</v>
       </c>
     </row>
     <row r="17">
@@ -5495,25 +5497,25 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988743</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883228</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623576</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
@@ -5522,37 +5524,37 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2988.069926596601</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596601</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747413</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905341</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
@@ -5601,16 +5603,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>105.4776804749704</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>1194.79262694784</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>446.1370507523521</v>
+        <v>798.259215059524</v>
       </c>
       <c r="C19" t="n">
-        <v>274.1644876312681</v>
+        <v>703.5067984699893</v>
       </c>
       <c r="D19" t="n">
-        <v>274.1644876312681</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5689,34 +5691,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.71561057819</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818951</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506125</v>
       </c>
       <c r="S19" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.54208002526</v>
       </c>
       <c r="T19" t="n">
-        <v>1941.958004048024</v>
+        <v>1822.202732251159</v>
       </c>
       <c r="U19" t="n">
-        <v>1661.773555548329</v>
+        <v>1542.018283751464</v>
       </c>
       <c r="V19" t="n">
-        <v>1380.062088156358</v>
+        <v>1542.018283751464</v>
       </c>
       <c r="W19" t="n">
-        <v>1105.20968432887</v>
+        <v>1267.165879923977</v>
       </c>
       <c r="X19" t="n">
-        <v>862.6457877746757</v>
+        <v>1024.601983369782</v>
       </c>
       <c r="Y19" t="n">
-        <v>636.3030194644177</v>
+        <v>798.259215059524</v>
       </c>
     </row>
     <row r="20">
@@ -5732,64 +5734,64 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>903.7433331113961</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>1833.368380730673</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N20" t="n">
-        <v>3561.711740982686</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.856391133499</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
@@ -5838,10 +5840,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>373.4203922683193</v>
+        <v>769.8982080594424</v>
       </c>
       <c r="C22" t="n">
-        <v>201.4478291472353</v>
+        <v>597.9256449383583</v>
       </c>
       <c r="D22" t="n">
-        <v>201.4478291472353</v>
+        <v>434.608872065129</v>
       </c>
       <c r="E22" t="n">
-        <v>201.4478291472353</v>
+        <v>268.4006662179826</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5908,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5935,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X22" t="n">
-        <v>789.9291292906429</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.5863609803849</v>
+        <v>960.064176771508</v>
       </c>
     </row>
     <row r="23">
@@ -6005,10 +6007,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6072,7 +6074,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
         <v>821.6753975134684</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3507.812458350244</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C25" t="n">
-        <v>3507.812458350244</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D25" t="n">
-        <v>3344.495685477015</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E25" t="n">
-        <v>3178.287479629868</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F25" t="n">
-        <v>3178.287479629868</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4945.000622810562</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>4701.661275036462</v>
+        <v>2211.39718416391</v>
       </c>
       <c r="U25" t="n">
-        <v>4421.476826536767</v>
+        <v>1931.212735664215</v>
       </c>
       <c r="V25" t="n">
-        <v>4139.765359144795</v>
+        <v>1649.501268272243</v>
       </c>
       <c r="W25" t="n">
-        <v>3864.912955317308</v>
+        <v>1374.648864444756</v>
       </c>
       <c r="X25" t="n">
-        <v>3622.349058763114</v>
+        <v>1132.084967890562</v>
       </c>
       <c r="Y25" t="n">
-        <v>3507.812458350244</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="26">
@@ -6239,7 +6241,7 @@
         <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
         <v>5115.135670291427</v>
@@ -6309,16 +6311,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T28" t="n">
-        <v>2065.542080025265</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U28" t="n">
-        <v>1785.357631525569</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="V28" t="n">
-        <v>1503.646164133598</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="W28" t="n">
-        <v>1503.646164133598</v>
+        <v>4146.624422709279</v>
       </c>
       <c r="X28" t="n">
-        <v>1503.646164133598</v>
+        <v>4146.624422709279</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>4146.624422709279</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6466,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2036.213862444163</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3012.464920930865</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3857.609571081677</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>5021.974329743787</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3918.135197142812</v>
+        <v>4004.968089514443</v>
       </c>
       <c r="C31" t="n">
-        <v>3746.162634021728</v>
+        <v>3832.995526393359</v>
       </c>
       <c r="D31" t="n">
-        <v>3582.845861148498</v>
+        <v>3669.67875352013</v>
       </c>
       <c r="E31" t="n">
-        <v>3416.637655301352</v>
+        <v>3503.470547672983</v>
       </c>
       <c r="F31" t="n">
-        <v>3244.775881075912</v>
+        <v>3331.608773447544</v>
       </c>
       <c r="G31" t="n">
-        <v>3078.518911370144</v>
+        <v>3165.351803741776</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>3021.55553524993</v>
       </c>
       <c r="I31" t="n">
         <v>2934.722642878299</v>
@@ -6646,25 +6648,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S31" t="n">
-        <v>5115.135670291427</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T31" t="n">
-        <v>5115.135670291427</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U31" t="n">
-        <v>4834.951221791732</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="V31" t="n">
-        <v>4834.951221791732</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="W31" t="n">
-        <v>4560.098817964245</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="X31" t="n">
-        <v>4334.643934165136</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="Y31" t="n">
-        <v>4108.301165854878</v>
+        <v>4195.134058226508</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C33" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D33" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E33" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F33" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G33" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M33" t="n">
-        <v>939.1015214887346</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N33" t="n">
-        <v>939.1015214887346</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O33" t="n">
-        <v>1828.582799500206</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S33" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T33" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U33" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V33" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W33" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X33" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y33" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>2126.267936898555</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1844.556469506584</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>195.4640539534684</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629316</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -6971,13 +6973,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7026,13 +7028,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O36" t="n">
-        <v>1194.79262694784</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>373.4203922683193</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="C37" t="n">
-        <v>268.5596831115964</v>
+        <v>617.9565661695589</v>
       </c>
       <c r="D37" t="n">
-        <v>268.5596831115964</v>
+        <v>454.6397932963296</v>
       </c>
       <c r="E37" t="n">
-        <v>268.5596831115964</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7138,7 +7140,7 @@
         <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>789.9291292906429</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7153,22 @@
         <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7181,16 +7183,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2837.654482149731</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N38" t="n">
-        <v>3813.905540636432</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O38" t="n">
-        <v>4659.050190787244</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
         <v>5115.135670291427</v>
@@ -7257,19 +7259,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>939.1015214887346</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M39" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>769.9464360574118</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C40" t="n">
-        <v>769.9464360574118</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D40" t="n">
-        <v>606.6296631841825</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E40" t="n">
-        <v>440.421457337036</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7333,49 +7335,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358265</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302473</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="T40" t="n">
-        <v>2039.376393044857</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="U40" t="n">
-        <v>1985.582940853388</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="V40" t="n">
-        <v>1703.871473461417</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="W40" t="n">
-        <v>1429.01906963393</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X40" t="n">
-        <v>1186.455173079735</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y40" t="n">
-        <v>960.1124047694775</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1680.642435948615</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1680.642435948615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1325.638891649353</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>899.6619517972106</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>474.5377699866108</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>70.19870757605938</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>70.19870757605938</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>70.19870757605938</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L41" t="n">
-        <v>938.907713829794</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>1382.869635108143</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N41" t="n">
-        <v>1382.869635108143</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O41" t="n">
-        <v>2228.014285258955</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P41" t="n">
-        <v>2936.293564416882</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q41" t="n">
-        <v>3392.379043921066</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R41" t="n">
-        <v>3509.935378802968</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3509.935378802968</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3509.935378802968</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3251.58046939938</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2894.09105452563</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2497.699704825977</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2085.979705993725</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>1680.642435948615</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>637.3221986075146</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>519.8162951250193</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>415.9763366403044</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>311.2744029132416</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>70.19870757605938</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="K42" t="n">
-        <v>70.19870757605938</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="L42" t="n">
-        <v>906.9975156589655</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="M42" t="n">
-        <v>906.9975156589655</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N42" t="n">
-        <v>906.9975156589655</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O42" t="n">
-        <v>906.9975156589655</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P42" t="n">
-        <v>1414.74086129379</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1470.913958935138</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>905.9420966742849</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>766.2492080275773</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>341.3163864385503</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C43" t="n">
-        <v>242.060481801499</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D43" t="n">
-        <v>242.060481801499</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E43" t="n">
-        <v>242.060481801499</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F43" t="n">
-        <v>70.19870757605938</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G43" t="n">
-        <v>70.19870757605938</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>70.19870757605938</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>127.6900358002174</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>354.2176370060546</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>708.9069583004754</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1100.092753270726</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1477.584264146762</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O43" t="n">
-        <v>1833.012392826525</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P43" t="n">
-        <v>2123.611604748426</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q43" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R43" t="n">
-        <v>2250.611734989188</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S43" t="n">
-        <v>2080.476687508323</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="T43" t="n">
-        <v>1837.137339734223</v>
+        <v>1992.337779732034</v>
       </c>
       <c r="U43" t="n">
-        <v>1556.952891234527</v>
+        <v>1992.337779732034</v>
       </c>
       <c r="V43" t="n">
-        <v>1275.241423842556</v>
+        <v>1992.337779732034</v>
       </c>
       <c r="W43" t="n">
-        <v>1000.389020015069</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X43" t="n">
-        <v>757.8251234608739</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y43" t="n">
-        <v>531.4823551506159</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2175.832242451052</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>1748.931512464353</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
-        <v>1325.638891649353</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>899.6619517972106</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>474.5377699866108</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>70.19870757605938</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>70.19870757605938</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>432.8021663929549</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>432.8021663929549</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>432.8021663929549</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M44" t="n">
-        <v>514.1606288544079</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N44" t="n">
-        <v>1382.869635108143</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O44" t="n">
-        <v>2228.014285258955</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P44" t="n">
-        <v>2936.293564416882</v>
+        <v>4714.375569412722</v>
       </c>
       <c r="Q44" t="n">
-        <v>3392.379043921066</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3509.935378802968</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3509.935378802968</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3358.507291661443</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3358.507291661443</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3001.017876787692</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3001.017876787692</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3001.017876787692</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2595.680606742582</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>637.3221986075146</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>519.8162951250193</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>415.9763366403044</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>311.2744029132416</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>70.19870757605938</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K45" t="n">
-        <v>660.683634144399</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L45" t="n">
-        <v>1497.482442227305</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M45" t="n">
-        <v>1878.886338156569</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N45" t="n">
-        <v>1878.886338156569</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O45" t="n">
-        <v>1878.886338156569</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P45" t="n">
-        <v>1878.886338156569</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1470.913958935138</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>905.9420966742849</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>766.2492080275773</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>671.5135815358645</v>
+        <v>850.3052888313966</v>
       </c>
       <c r="C46" t="n">
-        <v>499.5410184147806</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="D46" t="n">
-        <v>336.2242455415513</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E46" t="n">
-        <v>336.2242455415513</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F46" t="n">
-        <v>336.2242455415513</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G46" t="n">
-        <v>169.9672758357834</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>169.9672758357834</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>127.6900358002174</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>354.2176370060546</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>708.9069583004754</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1100.092753270726</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1477.584264146762</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1833.012392826525</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2123.611604748426</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2250.611734989188</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2080.476687508323</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>1837.137339734223</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U46" t="n">
-        <v>1556.952891234527</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V46" t="n">
-        <v>1275.241423842556</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W46" t="n">
-        <v>1000.389020015069</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X46" t="n">
-        <v>1000.389020015069</v>
+        <v>850.3052888313966</v>
       </c>
       <c r="Y46" t="n">
-        <v>774.0462517048109</v>
+        <v>850.3052888313966</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487774</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>501.3089991395926</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>362.1121742943703</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>521.3520529641994</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8061,22 +8063,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681976</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>398.7239096569994</v>
       </c>
       <c r="N3" t="n">
-        <v>464.1005135391148</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>506.9485808761902</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>505.5475323587967</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8137,10 +8139,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>233.5263615801855</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8149,7 +8151,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>94.64032950871652</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>361.589074527822</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8292,19 +8294,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>382.3089311945595</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>465.9489063640446</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8313,7 +8315,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8371,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8386,7 +8388,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>364.3093421868743</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
@@ -8462,7 +8464,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>452.2898123070841</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
@@ -8471,7 +8473,7 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8529,7 +8531,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>178.8848775931265</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>578.6270469489275</v>
@@ -8538,22 +8540,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>378.9827212526459</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,28 +8692,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>392.9518406340324</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>362.1014486857561</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,22 +8777,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>852.1800373430559</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>392.5212682508542</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,22 +8929,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>915.7958871333648</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>914.9151076001737</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>903.1119547219485</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9003,25 +9005,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>613.5266897918054</v>
+        <v>196.7690841472815</v>
       </c>
       <c r="O15" t="n">
-        <v>900.6557344229641</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9170,19 +9172,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>924.3306556055946</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9249,19 +9251,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>26.30381795590561</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>481.4282914131709</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>479.0344602783164</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9410,16 +9412,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>855.4509062314398</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,10 +9722,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9887,10 +9889,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9957,19 +9959,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>281.4457336203087</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10112,7 +10114,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>129.1350140843319</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,19 +10433,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>105.0107851302144</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10598,13 +10600,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>355.5991224937308</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10674,7 +10676,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>226.402256022168</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>921.6378271075471</v>
@@ -10683,7 +10685,7 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10829,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>772.395863235019</v>
+        <v>517.6546514635598</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10838,10 +10840,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10905,10 +10907,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>657.2064368952725</v>
       </c>
       <c r="M39" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
@@ -10917,10 +10919,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11060,28 +11062,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>915.795887133365</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8776480290769</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>124.3756766890881</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,25 +11138,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>278.4163741766268</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>534.6429075026309</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11297,16 +11299,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>119.6115280120107</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>914.7634675351882</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11315,7 +11317,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>322.1890847023786</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11373,16 +11375,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>408.3532410469382</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11391,10 +11393,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.32558553536006</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>66.44073542471729</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>106.6313887632613</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>233.2120691334768</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>59.69064356315785</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>56.38521768393286</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>76.44794506623388</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>71.98949189919249</v>
+        <v>5.70618319915269</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24175,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>170.300583207863</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>110.6881062184145</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>60.83085829126868</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.362944730603</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>12.80631912921184</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>16.93792262753527</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>122.499278133501</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>34.50603394022494</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>66.44073542471752</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>79.09769728291595</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -25330,7 +25332,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25600,13 +25602,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>224.1270863451451</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>18.44967133088471</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>67.60618575058021</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>71.98949189919232</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>125.8003826660164</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>68.80250897570266</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.75696555768815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>106.3406251250447</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>510376.6068530392</v>
+        <v>510835.5705434321</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>510376.6068530392</v>
+        <v>512321.5942829311</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>394662.5668564308</v>
+        <v>506358.0694627983</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>394662.566856431</v>
+        <v>506358.0694627981</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>506358.0694627983</v>
+        <v>506358.0694627981</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>506358.0694627984</v>
+        <v>506358.0694627983</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>506358.0694627983</v>
+        <v>506358.0694627984</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506358.0694627983</v>
+        <v>506358.0694627984</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394662.566856431</v>
+        <v>506358.0694627984</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>394662.566856431</v>
+        <v>506358.0694627982</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>524198.4012100467</v>
+      </c>
+      <c r="C2" t="n">
         <v>524198.401210047</v>
       </c>
-      <c r="C2" t="n">
-        <v>524198.4012100471</v>
-      </c>
       <c r="D2" t="n">
-        <v>524198.4012100468</v>
+        <v>524198.401210047</v>
       </c>
       <c r="E2" t="n">
-        <v>394257.7110981601</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="F2" t="n">
-        <v>394257.7110981602</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="G2" t="n">
-        <v>505827.3628237027</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="H2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="I2" t="n">
-        <v>505827.3628237027</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="J2" t="n">
         <v>505827.3628237027</v>
@@ -26347,13 +26349,13 @@
         <v>505827.3628237026</v>
       </c>
       <c r="N2" t="n">
+        <v>505827.3628237025</v>
+      </c>
+      <c r="O2" t="n">
+        <v>505827.3628237025</v>
+      </c>
+      <c r="P2" t="n">
         <v>505827.3628237027</v>
-      </c>
-      <c r="O2" t="n">
-        <v>394257.7110981602</v>
-      </c>
-      <c r="P2" t="n">
-        <v>394257.7110981602</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361221</v>
       </c>
       <c r="D3" t="n">
-        <v>29456.39286176439</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95919.98339863025</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>109990.3304731536</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701978</v>
       </c>
       <c r="L3" t="n">
-        <v>24000.08990045009</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80058.28809514517</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176510.6008550963</v>
+        <v>171848.3668116666</v>
       </c>
       <c r="C4" t="n">
-        <v>176510.6008550963</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="D4" t="n">
         <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>22918.39724436682</v>
+        <v>29432.28705591145</v>
       </c>
       <c r="F4" t="n">
-        <v>22918.39724436682</v>
+        <v>29432.28705591137</v>
       </c>
       <c r="G4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591138</v>
       </c>
       <c r="H4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591145</v>
       </c>
       <c r="I4" t="n">
         <v>29432.2870559115</v>
@@ -26448,16 +26450,16 @@
         <v>29432.2870559115</v>
       </c>
       <c r="M4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591148</v>
       </c>
       <c r="N4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
-        <v>22918.39724436682</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="P4" t="n">
-        <v>22918.39724436682</v>
+        <v>29432.28705591151</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>53351.0177578051</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>53351.0177578051</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>53351.01775780512</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>53351.01775780512</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131381.3654666019</v>
+        <v>127184.1155066277</v>
       </c>
       <c r="C6" t="n">
-        <v>286007.0860847224</v>
+        <v>276592.2406932713</v>
       </c>
       <c r="D6" t="n">
-        <v>270542.681505119</v>
+        <v>299999.0743668835</v>
       </c>
       <c r="E6" t="n">
-        <v>222068.3126973579</v>
+        <v>182905.657022721</v>
       </c>
       <c r="F6" t="n">
-        <v>317988.2960959882</v>
+        <v>398645.0135793616</v>
       </c>
       <c r="G6" t="n">
-        <v>288654.683106208</v>
+        <v>398645.0135793615</v>
       </c>
       <c r="H6" t="n">
         <v>398645.0135793614</v>
       </c>
       <c r="I6" t="n">
+        <v>398645.0135793614</v>
+      </c>
+      <c r="J6" t="n">
+        <v>272067.7449990727</v>
+      </c>
+      <c r="K6" t="n">
+        <v>379998.4132223417</v>
+      </c>
+      <c r="L6" t="n">
+        <v>398645.0135793614</v>
+      </c>
+      <c r="M6" t="n">
+        <v>218581.1421241938</v>
+      </c>
+      <c r="N6" t="n">
+        <v>398645.0135793613</v>
+      </c>
+      <c r="O6" t="n">
+        <v>398645.0135793613</v>
+      </c>
+      <c r="P6" t="n">
         <v>398645.0135793615</v>
-      </c>
-      <c r="J6" t="n">
-        <v>277922.4966366046</v>
-      </c>
-      <c r="K6" t="n">
-        <v>398645.0135793614</v>
-      </c>
-      <c r="L6" t="n">
-        <v>374644.9236789113</v>
-      </c>
-      <c r="M6" t="n">
-        <v>318586.7254842163</v>
-      </c>
-      <c r="N6" t="n">
-        <v>398645.0135793615</v>
-      </c>
-      <c r="O6" t="n">
-        <v>317988.2960959882</v>
-      </c>
-      <c r="P6" t="n">
-        <v>317988.2960959882</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>877.4838447007419</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>877.4838447007419</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>877.4838447007421</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>877.4838447007421</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="D4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>321.2560315851478</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>401.3000728721147</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="L4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>321.2560315851478</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="L4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>321.2560315851478</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>401.3000728721147</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>306.9754453577183</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>50.38950857894085</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.8492170574937</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27588,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -27600,10 +27602,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>23.39408357148619</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>350.5048792244489</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>21.8366432743328</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27774,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>143.511166768169</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>109.8191218755152</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27865,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>263.514381444605</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>155.2915147120252</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>249.74616644742</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.52700769166989</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>462.9969567069696</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>324.7212149383462</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>375.6271291446714</v>
       </c>
       <c r="N3" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,10 +34859,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>211.6076016844843</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34869,7 +34871,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>72.14114201029207</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35012,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>359.9096973612262</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35091,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35106,7 +35108,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>341.8101546884499</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
@@ -35170,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,7 +35184,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>415.0101894726381</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
@@ -35191,7 +35193,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>158.2737632597931</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>556.2278131155941</v>
@@ -35258,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>357.2118800478172</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>355.6722177995864</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>324.5260868755248</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>829.0832568307279</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>369.349378528632</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>877.4838447007419</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>877.4838447007419</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>865.8323318875024</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>592.1836615782638</v>
+        <v>175.4260559337399</v>
       </c>
       <c r="O15" t="n">
-        <v>877.4838447007419</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404347</v>
       </c>
       <c r="O16" t="n">
         <v>359.0183117977405</v>
@@ -35890,19 +35892,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>886.8993927061629</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35969,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>3.207037443577633</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36057,7 +36059,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968642</v>
       </c>
       <c r="Q19" t="n">
         <v>128.2829598391535</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>443.269859483507</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36130,16 +36132,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>818.1712833969938</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
         <v>726.6390748562019</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36607,10 +36609,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>94.10236418953542</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>83.23994392538575</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37318,13 +37320,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>319.4744478891327</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37394,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>898.4659373853249</v>
@@ -37403,7 +37405,7 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>734.9646003355872</v>
+        <v>480.2233885641281</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37558,10 +37560,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="M39" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37637,10 +37639,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937778</v>
       </c>
       <c r="L40" t="n">
         <v>358.2720417115361</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>877.4838447007421</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>448.446385129645</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>257.8052598432935</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>512.8720662978022</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -37947,7 +37949,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N43" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404445</v>
       </c>
       <c r="O43" t="n">
         <v>359.0183117977405</v>
@@ -38017,16 +38019,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>82.18026511257888</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>877.4838447007421</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38035,7 +38037,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38093,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2604128.139909587</v>
+        <v>2603431.478704497</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954496</v>
+        <v>11843801.51954495</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.946211476</v>
+        <v>612367.9462114749</v>
       </c>
     </row>
     <row r="9">
@@ -667,13 +667,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>168.3268066668723</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>292.3723495104537</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4036204323794061</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>67.74092354737206</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>68.55481538240082</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>247.4120385849164</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1059,10 +1059,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>25.13775189891358</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>130.3191357131377</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
@@ -1186,22 +1186,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>90.40013928040797</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>326.6257644515839</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>4.378995526347924</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>27.6364375672788</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486155</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1378,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396359</v>
+        <v>34.54790254396354</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095521</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.9145207250131</v>
@@ -1435,7 +1435,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1530,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>55.0522163812357</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1615,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396377</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1770,19 +1770,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>77.17272543268828</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>85.97308812299428</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E17" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396377</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>93.80489242363926</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686744</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2061,7 +2061,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2089,19 +2089,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>164.4369732840325</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2481,16 +2481,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
-        <v>70.60537108849599</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>127.4334507336763</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686788</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2772,16 +2772,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.96456344791494</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>200.1143878900198</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3252,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>189.5733066869304</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868335</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>85.44842650575903</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3672,7 +3672,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -3681,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>70.66230422638809</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>260.4446813871667</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3805,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3948,10 +3948,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>146.3034971231957</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4200,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>133.7976324636082</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1740.295266126907</v>
+        <v>932.2144580460985</v>
       </c>
       <c r="C2" t="n">
-        <v>1717.434940180611</v>
+        <v>909.3541320998027</v>
       </c>
       <c r="D2" t="n">
-        <v>1294.142319365611</v>
+        <v>486.0615112848029</v>
       </c>
       <c r="E2" t="n">
-        <v>868.1653795134687</v>
+        <v>464.1249754730645</v>
       </c>
       <c r="F2" t="n">
-        <v>443.0411977028688</v>
+        <v>39.00079366246472</v>
       </c>
       <c r="G2" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J2" t="n">
-        <v>401.305594109213</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516413</v>
+        <v>403.5871017449292</v>
       </c>
       <c r="L2" t="n">
-        <v>1338.611505491541</v>
+        <v>403.5871017449292</v>
       </c>
       <c r="M2" t="n">
-        <v>1338.611505491541</v>
+        <v>403.5871017449292</v>
       </c>
       <c r="N2" t="n">
-        <v>1338.611505491541</v>
+        <v>403.5871017449292</v>
       </c>
       <c r="O2" t="n">
-        <v>1338.611505491541</v>
+        <v>882.5260259873571</v>
       </c>
       <c r="P2" t="n">
-        <v>1817.55042973397</v>
+        <v>1361.464950229785</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.55042973397</v>
+        <v>1817.550429733968</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615872</v>
+        <v>1830.739470489011</v>
       </c>
       <c r="T2" t="n">
-        <v>1765.079687174587</v>
+        <v>1609.813899533644</v>
       </c>
       <c r="U2" t="n">
-        <v>1765.079687174587</v>
+        <v>1609.813899533644</v>
       </c>
       <c r="V2" t="n">
-        <v>1765.079687174587</v>
+        <v>1252.324484659894</v>
       </c>
       <c r="W2" t="n">
-        <v>1765.079687174587</v>
+        <v>956.9988790937788</v>
       </c>
       <c r="X2" t="n">
-        <v>1757.400092382738</v>
+        <v>949.3192843019301</v>
       </c>
       <c r="Y2" t="n">
-        <v>1756.103226378033</v>
+        <v>948.0224182972245</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565625</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294997</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124039</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000786</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231744</v>
+        <v>46.14877825422926</v>
       </c>
       <c r="J3" t="n">
-        <v>38.70213529231744</v>
+        <v>317.8462675338203</v>
       </c>
       <c r="K3" t="n">
-        <v>38.70213529231744</v>
+        <v>796.7851917762482</v>
       </c>
       <c r="L3" t="n">
-        <v>517.6410595347458</v>
+        <v>796.7851917762482</v>
       </c>
       <c r="M3" t="n">
-        <v>889.5119173879705</v>
+        <v>796.7851917762482</v>
       </c>
       <c r="N3" t="n">
-        <v>889.5119173879705</v>
+        <v>796.7851917762482</v>
       </c>
       <c r="O3" t="n">
-        <v>1368.450841630399</v>
+        <v>822.2860546829168</v>
       </c>
       <c r="P3" t="n">
-        <v>1847.389765872827</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1847.389765872827</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>950.3183921019141</v>
+        <v>855.0190971226168</v>
       </c>
       <c r="C4" t="n">
-        <v>949.9106946954703</v>
+        <v>855.0190971226168</v>
       </c>
       <c r="D4" t="n">
         <v>786.593921822241</v>
@@ -4476,19 +4476,19 @@
         <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>448.5239417496549</v>
       </c>
       <c r="G4" t="n">
         <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647546</v>
+        <v>96.19346351647543</v>
       </c>
       <c r="K4" t="n">
         <v>322.7210647223126</v>
@@ -4497,43 +4497,43 @@
         <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>784.5877828974087</v>
       </c>
       <c r="N4" t="n">
-        <v>1446.08769186302</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453209</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.10663437511</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303045</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.93310382218</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>1474.59375604808</v>
+        <v>1691.767416841771</v>
       </c>
       <c r="U4" t="n">
-        <v>1474.59375604808</v>
+        <v>1411.582968342075</v>
       </c>
       <c r="V4" t="n">
-        <v>1192.882288656109</v>
+        <v>1129.871500950104</v>
       </c>
       <c r="W4" t="n">
-        <v>1192.882288656109</v>
+        <v>855.0190971226168</v>
       </c>
       <c r="X4" t="n">
-        <v>950.3183921019141</v>
+        <v>855.0190971226168</v>
       </c>
       <c r="Y4" t="n">
-        <v>950.3183921019141</v>
+        <v>855.0190971226168</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>988.0056192934842</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C5" t="n">
-        <v>561.1048893067843</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D5" t="n">
-        <v>491.857601041733</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E5" t="n">
-        <v>65.88066118959054</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
         <v>44.79688341939484</v>
@@ -4570,25 +4570,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="L5" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="M5" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="N5" t="n">
         <v>957.7672188505812</v>
       </c>
-      <c r="L5" t="n">
-        <v>1100.603903091853</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1651.269438076291</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1651.269438076291</v>
-      </c>
       <c r="O5" t="n">
-        <v>1651.269438076291</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4600,19 +4600,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.191253630124</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1407.853983585014</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="6">
@@ -4643,19 +4643,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>866.8612493132769</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L6" t="n">
-        <v>866.8612493132769</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M6" t="n">
-        <v>866.8612493132769</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N6" t="n">
         <v>1307.021068682275</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>654.358100361263</v>
+        <v>983.8830790816388</v>
       </c>
       <c r="C7" t="n">
-        <v>482.385537240179</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D7" t="n">
-        <v>482.385537240179</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E7" t="n">
         <v>482.385537240179</v>
@@ -4725,13 +4725,13 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
         <v>1074.392270743915</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2199.519583877615</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2199.519583877615</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2199.519583877615</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394889</v>
+        <v>2199.519583877615</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002918</v>
+        <v>1917.808116485644</v>
       </c>
       <c r="W7" t="n">
-        <v>1202.502328002918</v>
+        <v>1642.955712658157</v>
       </c>
       <c r="X7" t="n">
-        <v>1070.866837383587</v>
+        <v>1400.391816103962</v>
       </c>
       <c r="Y7" t="n">
-        <v>844.5240690733287</v>
+        <v>1174.049047793704</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>533.9701437626245</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C8" t="n">
         <v>107.0694137759246</v>
@@ -4804,28 +4804,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>407.101683866143</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>407.101683866143</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>549.9383681074144</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091853</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4834,22 +4834,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1862.189048931929</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1770.875776931517</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>1770.875776931517</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X8" t="n">
-        <v>1359.155778099264</v>
+        <v>475.662714570906</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.8185080541546</v>
+        <v>145.7376999733464</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N9" t="n">
-        <v>866.8612493132769</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O9" t="n">
-        <v>1417.526784297715</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>964.3625747002551</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="C10" t="n">
-        <v>792.3900115791711</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1981.571904688275</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1953.656311185974</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1671.944843794003</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1397.092439966515</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1154.528543412321</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>1154.528543412321</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H11" t="n">
         <v>137.1995846623574</v>
@@ -5041,28 +5041,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>1394.531219842001</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M11" t="n">
-        <v>2398.817321261059</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N11" t="n">
-        <v>3375.06837974776</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O11" t="n">
-        <v>4220.213029898572</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291427</v>
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>374.0002026854196</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M12" t="n">
-        <v>374.0002026854196</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N12" t="n">
-        <v>1463.315149158289</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O12" t="n">
-        <v>1828.971033901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1077.775362431822</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C13" t="n">
-        <v>905.8027993107378</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="D13" t="n">
-        <v>850.1944999357522</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="E13" t="n">
-        <v>683.9862940886057</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="F13" t="n">
-        <v>512.1245198631661</v>
+        <v>201.5586180428797</v>
       </c>
       <c r="G13" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1785.357631525569</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1785.357631525569</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>1510.505227698082</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X13" t="n">
-        <v>1267.941331143888</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y13" t="n">
-        <v>1267.941331143888</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988743</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883228</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623576</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5314,13 +5314,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
         <v>2960.549862354846</v>
@@ -5354,28 +5354,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>939.1015214887346</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M15" t="n">
-        <v>939.1015214887346</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N15" t="n">
-        <v>1112.773316863137</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O15" t="n">
-        <v>1112.773316863137</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P15" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
         <v>1828.971033901635</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>796.0638950398452</v>
+        <v>1100.119310968643</v>
       </c>
       <c r="C16" t="n">
-        <v>624.0913319187612</v>
+        <v>928.1467478475586</v>
       </c>
       <c r="D16" t="n">
-        <v>460.7745590455319</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E16" t="n">
-        <v>460.7745590455319</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F16" t="n">
-        <v>288.9127848200923</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G16" t="n">
-        <v>288.9127848200923</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
         <v>202.0712816655526</v>
@@ -5448,40 +5448,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1509.688269976526</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1865.116398656289</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.71561057819</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818951</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.677127506125</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.54208002526</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>2065.54208002526</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U16" t="n">
-        <v>1785.357631525564</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V16" t="n">
-        <v>1503.646164133593</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="W16" t="n">
-        <v>1228.793760306106</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="X16" t="n">
-        <v>986.2298637519108</v>
+        <v>1516.628047990966</v>
       </c>
       <c r="Y16" t="n">
-        <v>986.2298637519108</v>
+        <v>1290.285279680708</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988743</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883228</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623576</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4935.721337874071</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5560,7 +5560,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N18" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O18" t="n">
-        <v>991.7839914173002</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>798.259215059524</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>703.5067984699893</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5676,49 +5676,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358268</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302475</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.71561057819</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818951</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.677127506125</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.54208002526</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251159</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751464</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1542.018283751464</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1267.165879923977</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1024.601983369782</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>798.259215059524</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5755,25 +5755,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>903.7433331113961</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1833.368380730673</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2837.654482149731</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3813.905540636432</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4659.050190787244</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5788,13 +5788,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5828,22 +5828,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>769.8982080594424</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>597.9256449383583</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>434.608872065129</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>268.4006662179826</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.628073325703</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>960.064176771508</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>960.064176771508</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6068,16 +6068,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>264.5188794419536</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>941.9189991784958</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2211.39718416391</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1931.212735664215</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1649.501268272243</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1374.648864444756</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1132.084967890562</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.084967890562</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L27" t="n">
-        <v>939.1015214887346</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M27" t="n">
-        <v>939.1015214887346</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N27" t="n">
-        <v>939.1015214887346</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O27" t="n">
-        <v>1194.79262694784</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4017.903765402536</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3845.931202281452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302482</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S28" t="n">
-        <v>4945.000622810562</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4701.661275036462</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4421.476826536767</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4421.476826536767</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>4146.624422709279</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>4146.624422709279</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>4146.624422709279</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6542,16 +6542,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4004.968089514443</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>3832.995526393359</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>3669.67875352013</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>3503.470547672983</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>3331.608773447544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>3165.351803741776</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>3021.55553524993</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4945.000622810562</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>4701.661275036462</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>4421.476826536767</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>4421.476826536767</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>4421.476826536767</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>4421.476826536767</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>4195.134058226508</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6709,16 +6709,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>3306.448039710919</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L33" t="n">
-        <v>3306.448039710919</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M33" t="n">
-        <v>4025.820723818557</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N33" t="n">
-        <v>5115.135670291427</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O33" t="n">
-        <v>5115.135670291427</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>603.8002552472883</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>985.454412532011</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>793.966223959354</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
         <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
@@ -6952,31 +6952,31 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4090.576687723259</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4798.855966881186</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399956</v>
@@ -7022,19 +7022,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N36" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O36" t="n">
-        <v>991.7839914173002</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="P36" t="n">
-        <v>1707.981708455798</v>
+        <v>1655.299238527233</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.9291292906429</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>617.9565661695589</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>454.6397932963296</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>368.3282513713204</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>789.9291292906429</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
         <v>2113.800768076616</v>
@@ -7165,7 +7165,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7174,7 +7174,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
@@ -7183,43 +7183,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7256,16 +7256,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>730.647150085061</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M39" t="n">
-        <v>730.647150085061</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N39" t="n">
-        <v>730.647150085061</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O39" t="n">
         <v>730.647150085061</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1085.715267670341</v>
+        <v>841.6494985835418</v>
       </c>
       <c r="C40" t="n">
-        <v>913.7427045492574</v>
+        <v>841.6494985835418</v>
       </c>
       <c r="D40" t="n">
-        <v>750.4259316760281</v>
+        <v>678.3327257103125</v>
       </c>
       <c r="E40" t="n">
-        <v>584.2177258288816</v>
+        <v>512.124519863166</v>
       </c>
       <c r="F40" t="n">
-        <v>412.355951603442</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358265</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302473</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100498</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976534</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656297</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.71574081896</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.71574081896</v>
+        <v>2164.301062630991</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.71574081896</v>
+        <v>1920.96171485689</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.71574081896</v>
+        <v>1640.777266357195</v>
       </c>
       <c r="V40" t="n">
-        <v>2019.640305074347</v>
+        <v>1359.065798965224</v>
       </c>
       <c r="W40" t="n">
-        <v>1744.78790124686</v>
+        <v>1084.213395137737</v>
       </c>
       <c r="X40" t="n">
-        <v>1502.224004692665</v>
+        <v>841.6494985835418</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.881236382407</v>
+        <v>841.6494985835418</v>
       </c>
     </row>
     <row r="41">
@@ -7411,46 +7411,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N41" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O41" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P41" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399955</v>
@@ -7490,22 +7490,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>357.5299206506891</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>357.5299206506891</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L42" t="n">
-        <v>357.5299206506891</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M42" t="n">
-        <v>357.5299206506891</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N42" t="n">
-        <v>1446.844867123559</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O42" t="n">
-        <v>1446.844867123559</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P42" t="n">
         <v>1446.844867123559</v>
@@ -7548,16 +7548,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C43" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D43" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G43" t="n">
         <v>345.8675501573982</v>
@@ -7569,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7581,31 +7581,31 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1509.688269976535</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1865.116398656298</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578199</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.677127506134</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2235.677127506134</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>1992.337779732034</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U43" t="n">
-        <v>1992.337779732034</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V43" t="n">
-        <v>1992.337779732034</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W43" t="n">
         <v>1844.556469506584</v>
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,10 +7636,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7648,37 +7648,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>4006.096290254794</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>4714.375569412722</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
@@ -7690,7 +7690,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
         <v>2960.549862354846</v>
@@ -7727,22 +7727,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>964.4851292537592</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L45" t="n">
-        <v>964.4851292537592</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M45" t="n">
-        <v>964.4851292537592</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N45" t="n">
-        <v>964.4851292537592</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O45" t="n">
-        <v>964.4851292537592</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P45" t="n">
         <v>1446.844867123559</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>850.3052888313966</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>678.3327257103126</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>678.3327257103126</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>512.1245198631661</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>850.3052888313966</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>850.3052888313966</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487774</v>
+        <v>38.06915396219949</v>
       </c>
       <c r="L2" t="n">
-        <v>501.3089991395926</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
@@ -7993,13 +7993,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.1676505099917</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641994</v>
+        <v>521.3520529641989</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.175924987301</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681976</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>398.7239096569994</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761902</v>
+        <v>48.9303371026955</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587967</v>
+        <v>505.5475323587963</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8145,13 +8145,13 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>130.8354367406529</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>94.64032950871652</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8218,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>182.5915214642101</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,22 +8291,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>465.9489063640446</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8382,7 +8382,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>417.7126065281028</v>
+        <v>417.7126065281034</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>181.5591018660332</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>268.8396510847011</v>
       </c>
       <c r="P9" t="n">
-        <v>378.9827212526459</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>348.6939416158729</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
@@ -8707,13 +8707,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>362.1014486857561</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>392.5212682508542</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>196.7690841472815</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>423.228367941047</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>98.60750039798609</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>72.59316121846759</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9260,10 +9260,10 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
-        <v>481.4282914131709</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9403,28 +9403,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>479.0344602783164</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,25 +9476,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N21" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>184.4658275011364</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
@@ -9968,13 +9968,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>281.4457336203087</v>
+        <v>53.89195754947579</v>
       </c>
       <c r="P27" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10190,19 +10190,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>730.3607534598153</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10357,19 +10357,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.60750039798609</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10427,25 +10427,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>255.8057257768496</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10600,16 +10600,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>355.5991224937308</v>
+        <v>98.60750039798516</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10679,13 +10679,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.806266097605</v>
+        <v>281.0208821870649</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10831,10 +10831,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>517.6546514635598</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10843,10 +10843,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,10 +10904,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>657.2064368952725</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10916,7 +10916,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P39" t="n">
         <v>745.2028786174529</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>124.3756766890881</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>278.4163741766268</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11150,13 +11150,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11302,13 +11302,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11317,7 +11317,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>322.1890847023786</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11375,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
@@ -11390,10 +11390,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P45" t="n">
-        <v>509.0028996591719</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>106.6313887632613</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>66.33105441802952</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>84.51087971180871</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>56.38521768393286</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>76.44794506623388</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.98949189918905</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>5.70618319915269</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24177,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24414,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
-        <v>170.300583207863</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>60.83085829126868</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.98949189918861</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>12.80631912921184</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.50603394022494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>79.09769728291595</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>97.7713927796684</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>18.44967133088471</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>22.13019988286467</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -25848,7 +25848,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>125.8003826660164</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>106.3406251250447</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>506358.0694627981</v>
+        <v>506358.0694627984</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>506358.0694627981</v>
+        <v>506358.0694627984</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506358.0694627983</v>
+        <v>506358.0694627984</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>506358.0694627984</v>
+        <v>506358.0694627983</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506358.0694627984</v>
+        <v>506358.0694627983</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>506358.0694627984</v>
+        <v>506358.0694627983</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>506358.0694627984</v>
+        <v>506358.0694627983</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506358.0694627982</v>
+        <v>506358.0694627983</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>524198.4012100467</v>
+        <v>524198.401210047</v>
       </c>
       <c r="C2" t="n">
-        <v>524198.401210047</v>
+        <v>524198.4012100468</v>
       </c>
       <c r="D2" t="n">
         <v>524198.401210047</v>
       </c>
       <c r="E2" t="n">
-        <v>505827.3628237026</v>
+        <v>505827.3628237028</v>
       </c>
       <c r="F2" t="n">
         <v>505827.3628237026</v>
       </c>
       <c r="G2" t="n">
+        <v>505827.3628237027</v>
+      </c>
+      <c r="H2" t="n">
+        <v>505827.3628237025</v>
+      </c>
+      <c r="I2" t="n">
+        <v>505827.3628237025</v>
+      </c>
+      <c r="J2" t="n">
+        <v>505827.3628237029</v>
+      </c>
+      <c r="K2" t="n">
+        <v>505827.3628237027</v>
+      </c>
+      <c r="L2" t="n">
+        <v>505827.3628237027</v>
+      </c>
+      <c r="M2" t="n">
+        <v>505827.3628237027</v>
+      </c>
+      <c r="N2" t="n">
         <v>505827.3628237026</v>
       </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>505827.3628237026</v>
       </c>
-      <c r="I2" t="n">
-        <v>505827.3628237026</v>
-      </c>
-      <c r="J2" t="n">
-        <v>505827.3628237027</v>
-      </c>
-      <c r="K2" t="n">
-        <v>505827.3628237026</v>
-      </c>
-      <c r="L2" t="n">
-        <v>505827.3628237026</v>
-      </c>
-      <c r="M2" t="n">
-        <v>505827.3628237026</v>
-      </c>
-      <c r="N2" t="n">
-        <v>505827.3628237025</v>
-      </c>
-      <c r="O2" t="n">
-        <v>505827.3628237025</v>
-      </c>
       <c r="P2" t="n">
-        <v>505827.3628237027</v>
+        <v>505827.3628237028</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.6960695911</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361221</v>
+        <v>23406.83367361233</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566405</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802887</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701978</v>
+        <v>18646.60035701988</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>29432.28705591145</v>
+        <v>29432.28705591146</v>
       </c>
       <c r="F4" t="n">
-        <v>29432.28705591137</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="G4" t="n">
-        <v>29432.28705591138</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="H4" t="n">
-        <v>29432.28705591145</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="I4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="J4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591155</v>
       </c>
       <c r="K4" t="n">
         <v>29432.2870559115</v>
@@ -26450,7 +26450,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="M4" t="n">
-        <v>29432.28705591148</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="N4" t="n">
         <v>29432.2870559115</v>
@@ -26459,7 +26459,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="P4" t="n">
-        <v>29432.28705591151</v>
+        <v>29432.2870559115</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216123</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127184.1155066277</v>
+        <v>127184.115506628</v>
       </c>
       <c r="C6" t="n">
-        <v>276592.2406932713</v>
+        <v>276592.240693271</v>
       </c>
       <c r="D6" t="n">
         <v>299999.0743668835</v>
       </c>
       <c r="E6" t="n">
-        <v>182905.657022721</v>
+        <v>182854.6263605368</v>
       </c>
       <c r="F6" t="n">
-        <v>398645.0135793616</v>
+        <v>398593.9829171771</v>
       </c>
       <c r="G6" t="n">
-        <v>398645.0135793615</v>
+        <v>398593.9829171772</v>
       </c>
       <c r="H6" t="n">
-        <v>398645.0135793614</v>
+        <v>398593.982917177</v>
       </c>
       <c r="I6" t="n">
-        <v>398645.0135793614</v>
+        <v>398593.982917177</v>
       </c>
       <c r="J6" t="n">
-        <v>272067.7449990727</v>
+        <v>272016.7143368886</v>
       </c>
       <c r="K6" t="n">
-        <v>379998.4132223417</v>
+        <v>379947.3825601573</v>
       </c>
       <c r="L6" t="n">
-        <v>398645.0135793614</v>
+        <v>398593.9829171772</v>
       </c>
       <c r="M6" t="n">
-        <v>218581.1421241938</v>
+        <v>218530.1114620096</v>
       </c>
       <c r="N6" t="n">
-        <v>398645.0135793613</v>
+        <v>398593.9829171772</v>
       </c>
       <c r="O6" t="n">
-        <v>398645.0135793613</v>
+        <v>398593.9829171772</v>
       </c>
       <c r="P6" t="n">
-        <v>398645.0135793615</v>
+        <v>398593.9829171773</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162609</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162609</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162609</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>50.38950857894085</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>100.0550866922028</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27539,10 +27539,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>169.8492170574937</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>93.94268159712493</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>350.5048792244489</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27672,19 +27672,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>160.1907602590138</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.430475280785</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>109.8191218755152</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>263.514381444605</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>74.65813289307465</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>165.7641609568373</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>249.74616644742</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28748,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -29462,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -34701,10 +34701,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.776691153968</v>
+        <v>2.304553167390154</v>
       </c>
       <c r="L2" t="n">
-        <v>462.9969567069696</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,13 +34713,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="P2" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="L3" t="n">
-        <v>483.776691153968</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>375.6271291446714</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>483.776691153968</v>
+        <v>25.75844738047328</v>
       </c>
       <c r="P3" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,13 +34865,13 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>108.259996849167</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>72.14114201029207</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34938,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
-        <v>144.2794790315872</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
+        <v>263.0232516395698</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
+        <v>437.0840165728143</v>
+      </c>
+      <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>444.6058781505029</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35102,7 +35102,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366176</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>144.2794790315872</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>245.6677613624789</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="P9" t="n">
-        <v>357.2118800478172</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>310.3818991832499</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
@@ -35427,13 +35427,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>324.5260868755248</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>369.349378528632</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4260559337399</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35816,7 +35816,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>381.3045564404347</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
         <v>359.0183117977405</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>385.7971050416152</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.48282579338804</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>50.07807450423802</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
-        <v>459.6574502083422</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937779</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36059,7 +36059,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>293.5345574968642</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
         <v>128.2829598391535</v>
@@ -36123,28 +36123,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>443.269859483507</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N21" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36688,13 +36688,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>258.2738438980865</v>
+        <v>30.72006782725357</v>
       </c>
       <c r="P27" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36758,7 +36758,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L28" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115399</v>
       </c>
       <c r="M28" t="n">
         <v>395.137166636617</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>707.2639729474873</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37077,19 +37077,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>62.48282579338804</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37320,16 +37320,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>319.4744478891327</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>205.0592278086265</v>
+        <v>258.2738438980864</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,10 +37551,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>480.2233885641281</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37563,10 +37563,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,7 +37636,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P39" t="n">
         <v>723.4320374126243</v>
@@ -37703,7 +37703,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
-        <v>228.8157587937778</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L40" t="n">
         <v>358.2720417115361</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>86.80031487885682</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>257.8052598432935</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,13 +37870,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -37949,7 +37949,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N43" t="n">
-        <v>381.3045564404445</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O43" t="n">
         <v>359.0183117977405</v>
@@ -38022,13 +38022,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38037,7 +38037,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>286.0644100977806</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
@@ -38110,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P45" t="n">
-        <v>487.2320584543432</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
